--- a/php183/docs/嗨易购商城数据字典.xlsx
+++ b/php183/docs/嗨易购商城数据字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155">
   <si>
     <t>嗨易购商城项目数据字典</t>
   </si>
@@ -134,15 +134,6 @@
   </si>
   <si>
     <t>类型id</t>
-  </si>
-  <si>
-    <t>商品类型表goods_typ_t</t>
-  </si>
-  <si>
-    <t>商品类型id</t>
-  </si>
-  <si>
-    <t>类型名称</t>
   </si>
   <si>
     <t>商品属性表goods_att_t</t>
@@ -497,8 +488,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -540,14 +531,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,7 +539,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -576,15 +560,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -598,7 +592,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,17 +616,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -644,17 +638,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -668,16 +660,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -722,31 +713,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,37 +869,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,12 +881,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -813,90 +888,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,6 +942,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -966,11 +981,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -990,56 +1031,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1056,10 +1047,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1068,137 +1059,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1215,9 +1206,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1566,10 +1554,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F148"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="I132" sqref="I132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1879,75 +1867,75 @@
         <v>37</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="A25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="4" t="s">
+      <c r="B27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="5" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="5" t="s">
+      <c r="A30" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="B30" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="5" t="s">
@@ -1955,738 +1943,738 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="2" t="s">
+      <c r="A31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="4" t="s">
+      <c r="B33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="5" t="s">
+    <row r="35" spans="1:4">
+      <c r="A35" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="B35" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="4" t="s">
+      <c r="B41" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B42" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="5" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="5" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
+      <c r="A45" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="4" t="s">
+      <c r="B49" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B50" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D50" s="4" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="5" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B51" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="5" t="s">
+      <c r="C52" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
+      <c r="C53" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="F55" s="8"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="4" t="s">
+      <c r="B59" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C60" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D60" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F55" s="9"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="5" t="s">
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="5" t="s">
+      <c r="B61" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" s="6" t="s">
+    <row r="62" spans="1:4">
+      <c r="A62" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" s="6" t="s">
+    <row r="63" spans="1:4">
+      <c r="A63" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="11" t="s">
+    <row r="65" spans="1:4">
+      <c r="A65" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="4" t="s">
+      <c r="B67" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B68" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C68" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D68" s="4" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="5" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
+      <c r="A71" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B72" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
+      <c r="A72" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>6</v>
+      <c r="A73" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="5" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="5" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="5" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="5" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>13</v>
+        <v>102</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>96</v>
-      </c>
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="A79" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>101</v>
+      <c r="A80" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="5" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C82" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="D82" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
+      <c r="A83" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B84" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
+      <c r="A84" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>6</v>
+      <c r="A85" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="5" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="A88" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>22</v>
+      <c r="A89" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="5" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="5" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>9</v>
@@ -2696,259 +2684,271 @@
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
+      <c r="A92" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B93" s="14" t="s">
+      <c r="A93" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
+      <c r="C93" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>6</v>
+      <c r="A94" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="5" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="A97" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>19</v>
+      <c r="A98" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="5" t="s">
-        <v>120</v>
+        <v>7</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="5" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="B100" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C100" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="5"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
+      <c r="B101" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="12" t="s">
+      <c r="A102" s="6"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="14"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="14"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="14"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B102" s="14" t="s">
+      <c r="B106" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C102" s="12"/>
-      <c r="D102" s="12"/>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="4" t="s">
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B107" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C107" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="D107" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="5" t="s">
+    <row r="108" spans="1:4">
+      <c r="A108" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B108" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C104" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="5" t="s">
+      <c r="C108" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="5" t="s">
+    <row r="109" spans="1:4">
+      <c r="A109" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="5" t="s">
+    <row r="110" spans="1:4">
+      <c r="A110" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B106" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="5" t="s">
+      <c r="B111" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="7"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="15"/>
-      <c r="B108" s="15"/>
-      <c r="C108" s="15"/>
-      <c r="D108" s="15"/>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="15"/>
-      <c r="B109" s="15"/>
-      <c r="C109" s="15"/>
-      <c r="D109" s="15"/>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="15"/>
-      <c r="B110" s="15"/>
-      <c r="C110" s="15"/>
-      <c r="D110" s="15"/>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B111" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="C111" s="12"/>
-      <c r="D111" s="12"/>
-    </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>6</v>
+      <c r="A112" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="5" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="5" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>9</v>
@@ -2959,436 +2959,366 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="5" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>8</v>
+        <v>133</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>22</v>
+        <v>134</v>
       </c>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="A117" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B117" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>22</v>
+      <c r="A118" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="5" t="s">
-        <v>134</v>
+        <v>7</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="5" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>136</v>
+        <v>8</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B124" s="13" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="5"/>
-      <c r="B121" s="5"/>
-      <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B122" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="C122" s="12"/>
-      <c r="D122" s="12"/>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="4" t="s">
+      <c r="C124" s="11"/>
+      <c r="D124" s="11"/>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B125" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C125" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D123" s="4" t="s">
+      <c r="D125" s="4" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="5" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="5" t="s">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="C127" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C128" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D127" s="5" t="s">
+      <c r="D128" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="5"/>
-      <c r="B128" s="5"/>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
-    </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="12" t="s">
+      <c r="A129" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="6"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B129" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="C129" s="12"/>
-      <c r="D129" s="12"/>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="4" t="s">
+      <c r="B131" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B132" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="C132" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D130" s="4" t="s">
+      <c r="D132" s="4" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="5" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="5" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="7"/>
-      <c r="B135" s="7"/>
-      <c r="C135" s="7"/>
-      <c r="D135" s="7"/>
+      <c r="A135" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="12" t="s">
+      <c r="A136" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B136" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="C136" s="12"/>
-      <c r="D136" s="12"/>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="4" t="s">
+      <c r="B138" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C138" s="11"/>
+      <c r="D138" s="11"/>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B139" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C137" s="4" t="s">
+      <c r="C139" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D137" s="4" t="s">
+      <c r="D139" s="4" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D139" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="5" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B141" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D141" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="5"/>
-      <c r="B142" s="5"/>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B143" s="14" t="s">
+      <c r="B143" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C143" s="12"/>
-      <c r="D143" s="12"/>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C147" s="5" t="s">
+      <c r="C143" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D147" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D148" s="5" t="s">
+      <c r="D143" s="5" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A61:D63"/>
+    <mergeCell ref="A56:D58"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/php183/docs/嗨易购商城数据字典.xlsx
+++ b/php183/docs/嗨易购商城数据字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="8850"/>
+    <workbookView windowWidth="18375" windowHeight="6720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158">
   <si>
     <t>嗨易购商城项目数据字典</t>
   </si>
@@ -233,6 +233,15 @@
   </si>
   <si>
     <t>用户表user_t</t>
+  </si>
+  <si>
+    <t>remember_token</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>updated_at</t>
   </si>
   <si>
     <t>用户id</t>
@@ -486,10 +495,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -531,15 +540,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -568,31 +636,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -607,10 +653,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -622,57 +676,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -713,181 +722,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,17 +951,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -962,21 +971,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -998,17 +992,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1017,16 +1000,42 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1047,10 +1056,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1059,133 +1068,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1554,13 +1563,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F143"/>
+  <dimension ref="A1:J143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="I132" sqref="I132"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.375" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
@@ -2271,7 +2280,7 @@
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:10">
       <c r="A60" s="4" t="s">
         <v>3</v>
       </c>
@@ -2283,6 +2292,15 @@
       </c>
       <c r="D60" s="4" t="s">
         <v>6</v>
+      </c>
+      <c r="F60" t="s">
+        <v>73</v>
+      </c>
+      <c r="H60" t="s">
+        <v>74</v>
+      </c>
+      <c r="J60" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2290,7 +2308,7 @@
         <v>7</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>9</v>
@@ -2301,13 +2319,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>19</v>
@@ -2315,10 +2333,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>9</v>
@@ -2329,10 +2347,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>34</v>
@@ -2343,10 +2361,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>9</v>
@@ -2366,7 +2384,7 @@
         <v>1</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
@@ -2390,7 +2408,7 @@
         <v>7</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>9</v>
@@ -2401,10 +2419,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>9</v>
@@ -2415,10 +2433,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>34</v>
@@ -2429,10 +2447,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>9</v>
@@ -2443,24 +2461,24 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>37</v>
@@ -2471,24 +2489,24 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>18</v>
@@ -2499,16 +2517,16 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2522,7 +2540,7 @@
         <v>1</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
@@ -2546,7 +2564,7 @@
         <v>7</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>9</v>
@@ -2557,10 +2575,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>9</v>
@@ -2571,10 +2589,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>9</v>
@@ -2588,7 +2606,7 @@
         <v>54</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>9</v>
@@ -2602,7 +2620,7 @@
         <v>25</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>9</v>
@@ -2613,10 +2631,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>9</v>
@@ -2636,7 +2654,7 @@
         <v>1</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
@@ -2660,7 +2678,7 @@
         <v>7</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>9</v>
@@ -2671,10 +2689,10 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>9</v>
@@ -2685,10 +2703,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>18</v>
@@ -2699,10 +2717,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>37</v>
@@ -2713,16 +2731,16 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2730,7 +2748,7 @@
         <v>25</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>9</v>
@@ -2750,7 +2768,7 @@
         <v>1</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C97" s="11"/>
       <c r="D97" s="11"/>
@@ -2774,7 +2792,7 @@
         <v>7</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>9</v>
@@ -2785,10 +2803,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>9</v>
@@ -2799,10 +2817,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>9</v>
@@ -2840,7 +2858,7 @@
         <v>1</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
@@ -2864,7 +2882,7 @@
         <v>7</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>9</v>
@@ -2875,10 +2893,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>9</v>
@@ -2903,10 +2921,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>9</v>
@@ -2917,10 +2935,10 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>9</v>
@@ -2934,7 +2952,7 @@
         <v>23</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>9</v>
@@ -2945,10 +2963,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>9</v>
@@ -2962,13 +2980,13 @@
         <v>25</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2982,7 +3000,7 @@
         <v>1</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C117" s="11"/>
       <c r="D117" s="11"/>
@@ -3006,7 +3024,7 @@
         <v>7</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>9</v>
@@ -3031,10 +3049,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>9</v>
@@ -3068,7 +3086,7 @@
         <v>1</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C124" s="11"/>
       <c r="D124" s="11"/>
@@ -3092,7 +3110,7 @@
         <v>7</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>9</v>
@@ -3103,10 +3121,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>9</v>
@@ -3117,10 +3135,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>18</v>
@@ -3131,10 +3149,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>9</v>
@@ -3154,7 +3172,7 @@
         <v>1</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C131" s="11"/>
       <c r="D131" s="11"/>
@@ -3178,7 +3196,7 @@
         <v>7</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>9</v>
@@ -3189,10 +3207,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>18</v>
@@ -3206,13 +3224,13 @@
         <v>55</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3220,7 +3238,7 @@
         <v>16</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>37</v>
@@ -3240,7 +3258,7 @@
         <v>1</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
@@ -3264,7 +3282,7 @@
         <v>7</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>9</v>
@@ -3292,7 +3310,7 @@
         <v>55</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>18</v>
@@ -3306,7 +3324,7 @@
         <v>16</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>18</v>
